--- a/build_Windows/TestChiKwadrat.xlsx
+++ b/build_Windows/TestChiKwadrat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kanjiklub\Documents\GitHub\CollisionDetectionComparison\build_Windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3DB5CBE-2BA9-48E5-85CA-F448C1A791A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD444D-5777-474C-B891-ECB49EBABD27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A3DFBAF8-C55C-4C09-AC04-CEAFEEF3C92E}"/>
+    <workbookView xWindow="-27840" yWindow="5745" windowWidth="25545" windowHeight="14025" activeTab="1" xr2:uid="{A3DFBAF8-C55C-4C09-AC04-CEAFEEF3C92E}"/>
   </bookViews>
   <sheets>
     <sheet name="AABB" sheetId="1" r:id="rId1"/>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D072742-2FBC-4470-BC08-D326BB669599}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC8201-C491-418E-9356-2E604BF49263}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,31 +1781,31 @@
       </c>
       <c r="D2" s="6">
         <f>(B2-$D$33)/$D$35</f>
-        <v>-3.741464913602587</v>
+        <v>-3.7865681982506421</v>
       </c>
       <c r="E2" s="6">
         <f>_xlfn.NORM.DIST(D2,0,1,1)</f>
-        <v>9.1475361191638489E-5</v>
+        <v>7.6371094332392217E-5</v>
       </c>
       <c r="F2" s="6">
         <f>E2</f>
-        <v>9.1475361191638489E-5</v>
+        <v>7.6371094332392217E-5</v>
       </c>
       <c r="G2" s="6">
         <f>F2*$C$13</f>
-        <v>6.8057668726579035E-2</v>
+        <v>5.659098090030263E-2</v>
       </c>
       <c r="H2" s="6">
         <f>C2-G2</f>
-        <v>-6.8057668726579035E-2</v>
+        <v>-5.659098090030263E-2</v>
       </c>
       <c r="I2" s="6">
         <f>H2^2</f>
-        <v>4.6318462724967736E-3</v>
+        <v>3.2025391192584173E-3</v>
       </c>
       <c r="J2" s="6">
         <f>I2/G2</f>
-        <v>6.8057668726579035E-2</v>
+        <v>5.6590980900302637E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1820,31 +1820,31 @@
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D12" si="0">(B3-$D$33)/$D$35</f>
-        <v>-2.9222624722487542</v>
+        <v>-2.9688945759560985</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E12" si="1">_xlfn.NORM.DIST(D3,0,1,1)</f>
-        <v>1.7374928107572634E-3</v>
+        <v>1.4943655759868026E-3</v>
       </c>
       <c r="F3" s="6">
         <f>E3-E2</f>
-        <v>1.6460174495656248E-3</v>
+        <v>1.4179944816544105E-3</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G12" si="2">F3*$C$13</f>
-        <v>1.2246369824768248</v>
+        <v>1.0507339109059182</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H12" si="3">C3-G3</f>
-        <v>-1.2246369824768248</v>
+        <v>-1.0507339109059182</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I12" si="4">H3^2</f>
-        <v>1.499735738849943</v>
+        <v>1.1040417515276459</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J12" si="5">I3/G3</f>
-        <v>1.2246369824768248</v>
+        <v>1.0507339109059182</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1855,35 +1855,35 @@
         <v>-2.5</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>-2.103060030894921</v>
+        <v>-2.151220953661555</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>1.7730261130233349E-2</v>
+        <v>1.572938195977322E-2</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F12" si="6">E4-E3</f>
-        <v>1.5992768319476085E-2</v>
+        <v>1.4235016383786417E-2</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="2"/>
-        <v>11.898619629690208</v>
+        <v>10.548147140385735</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="3"/>
-        <v>-6.8986196296902076</v>
+        <v>-3.5481471403857352</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="4"/>
-        <v>47.590952795147054</v>
+        <v>12.589348129827471</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="5"/>
-        <v>3.9997036863330786</v>
+        <v>1.1935127527399179</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1894,35 +1894,35 @@
         <v>-1.5</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-1.2838575895410878</v>
+        <v>-1.3335473313670116</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>9.9595894412083621E-2</v>
+        <v>9.1176126899420271E-2</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="6"/>
-        <v>8.1865633281850272E-2</v>
+        <v>7.5446744939647051E-2</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="2"/>
-        <v>60.908031161696606</v>
+        <v>55.906038000278464</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="3"/>
-        <v>-3.9080311616966057</v>
+        <v>-11.906038000278464</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="4"/>
-        <v>15.272707560791721</v>
+        <v>141.75374086407481</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="5"/>
-        <v>0.25075030779186158</v>
+        <v>2.5355712179669885</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1937,31 +1937,31 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-0.46465514818725473</v>
+        <v>-0.51587370907246832</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.32108921628936937</v>
+        <v>0.3029713087753142</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="6"/>
-        <v>0.22149332187728576</v>
+        <v>0.21179518187589391</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="2"/>
-        <v>164.7910314767006</v>
+        <v>156.94022977003738</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="3"/>
-        <v>67.208968523299404</v>
+        <v>75.059770229962623</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="4"/>
-        <v>4517.0454499658499</v>
+        <v>5633.9691069747832</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="5"/>
-        <v>27.410748081909446</v>
+        <v>35.898820303947367</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1972,35 +1972,35 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="7">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.35454729316657829</v>
+        <v>0.30179991322207506</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.63853561603227016</v>
+        <v>0.61859770148698079</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="6"/>
-        <v>0.31744639974290079</v>
+        <v>0.31562639271166659</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>236.18012140871818</v>
+        <v>233.87915699934496</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="3"/>
-        <v>-108.18012140871818</v>
+        <v>-123.87915699934496</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="4"/>
-        <v>11702.938668005005</v>
+        <v>15346.045538868357</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="5"/>
-        <v>49.550904615518633</v>
+        <v>65.615276434878453</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2011,35 +2011,35 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="7">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>1.1737497345204113</v>
+        <v>1.1194735355166185</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0.87975235854014078</v>
+        <v>0.86853091254671466</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="6"/>
-        <v>0.24121674250787062</v>
+        <v>0.24993321105973387</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="2"/>
-        <v>179.46525642585573</v>
+        <v>185.2005093952628</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="3"/>
-        <v>62.534743574144272</v>
+        <v>84.799490604737201</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="4"/>
-        <v>3910.5941538839784</v>
+        <v>7190.9536068229127</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="5"/>
-        <v>21.790257522628629</v>
+        <v>38.827936436587621</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2050,35 +2050,35 @@
         <v>2.5</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>1.9929521758742443</v>
+        <v>1.9371471578111621</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.97686665792402683</v>
+        <v>0.97363632125834543</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="6"/>
-        <v>9.7114299383886049E-2</v>
+        <v>0.10510540871163077</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>72.253038741611221</v>
+        <v>77.8831078553184</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="3"/>
-        <v>-1.2530387416112205</v>
+        <v>-8.8831078553184</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="4"/>
-        <v>1.570106087978631</v>
+        <v>78.909605169219461</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="5"/>
-        <v>2.1730658188558537E-2</v>
+        <v>1.0131799737089069</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>30</v>
@@ -2095,35 +2095,35 @@
         <v>3.5</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>2.8121546172280771</v>
+        <v>2.7548207801057054</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.99753945791800713</v>
+        <v>0.99706378535808371</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="6"/>
-        <v>2.0672799993980306E-2</v>
+        <v>2.3427464099738282E-2</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>15.380563195521347</v>
+        <v>17.359750897906068</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="3"/>
-        <v>-6.3805631955213471</v>
+        <v>-10.359750897906068</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="4"/>
-        <v>40.711586692041585</v>
+        <v>107.32443866666557</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="5"/>
-        <v>2.6469503212922891</v>
+        <v>6.1823720454197897</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>31</v>
@@ -2140,35 +2140,35 @@
         <v>4.5</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>3.6313570585819104</v>
+        <v>3.5724944024002485</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0.99985903260055176</v>
+        <v>0.99982320147818871</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="6"/>
-        <v>2.3195746825446228E-3</v>
+        <v>2.759416120104996E-3</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>1.7257635638131994</v>
+        <v>2.0447273449978018</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="3"/>
-        <v>-1.7257635638131994</v>
+        <v>-1.0447273449978018</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="4"/>
-        <v>2.9782598781852347</v>
+        <v>1.091455225386156</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="5"/>
-        <v>1.7257635638131994</v>
+        <v>0.53379010558854212</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>32</v>
@@ -2186,35 +2186,35 @@
         <v>5.5</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>4.4505594999357436</v>
+        <v>4.3901680246947921</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999571765702544</v>
+        <v>0.99999433684459438</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="6"/>
-        <v>1.3668505647368434E-4</v>
+        <v>1.7113536640567251E-4</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="2"/>
-        <v>0.10169368201642115</v>
+        <v>0.12681130650660333</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="3"/>
-        <v>-0.10169368201642115</v>
+        <v>0.87318869349339667</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="4"/>
-        <v>1.0341604962056978E-2</v>
+        <v>0.76245849444470504</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="5"/>
-        <v>0.10169368201642115</v>
+        <v>6.0125434825088115</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>33</v>
@@ -2227,23 +2227,23 @@
       <c r="B13" s="12"/>
       <c r="C13" s="15">
         <f>SUM(C2:C12)</f>
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12"/>
       <c r="F13" s="16">
         <f>SUM(F2:F12)</f>
-        <v>0.99999571765702544</v>
+        <v>0.99999433684459438</v>
       </c>
       <c r="G13" s="16">
         <f>SUM(G2:G12)</f>
-        <v>743.99681393682692</v>
+        <v>740.9958036018445</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="12"/>
       <c r="J13" s="17">
         <f>SUM(J2:J12)</f>
-        <v>108.79119709069552</v>
+        <v>158.92032764515261</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>34</v>
@@ -2324,11 +2324,11 @@
       </c>
       <c r="E18" s="6">
         <f>B18-$D$33</f>
-        <v>-5.067204301075269</v>
+        <v>-5.1309041835357627</v>
       </c>
       <c r="F18" s="6">
         <f>E18^2</f>
-        <v>25.676559428835706</v>
+        <v>26.326177740624793</v>
       </c>
       <c r="G18" s="6">
         <f>F18*C18</f>
@@ -2353,11 +2353,11 @@
       </c>
       <c r="E19" s="6">
         <f t="shared" ref="E19:E28" si="10">B19-$D$33</f>
-        <v>-4.067204301075269</v>
+        <v>-4.1309041835357627</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ref="F19:F28" si="11">E19^2</f>
-        <v>16.542150826685166</v>
+        <v>17.064369373553266</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" ref="G19:G28" si="12">F19*C19</f>
@@ -2374,23 +2374,23 @@
       </c>
       <c r="C20" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="9"/>
-        <v>-15</v>
+        <v>-21</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="10"/>
-        <v>-3.067204301075269</v>
+        <v>-3.1309041835357623</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="11"/>
-        <v>9.4077422245346298</v>
+        <v>9.8025610064817386</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="12"/>
-        <v>47.038711122673149</v>
+        <v>68.61792704537217</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="1"/>
@@ -2403,23 +2403,23 @@
       </c>
       <c r="C21" s="7">
         <f t="shared" si="8"/>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="9"/>
-        <v>-114</v>
+        <v>-88</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="10"/>
-        <v>-2.067204301075269</v>
+        <v>-2.1309041835357623</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="11"/>
-        <v>4.273333622384091</v>
+        <v>4.540752639410214</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="12"/>
-        <v>243.58001647589319</v>
+        <v>199.79311613404943</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
@@ -2440,15 +2440,15 @@
       </c>
       <c r="E22" s="6">
         <f t="shared" si="10"/>
-        <v>-1.0672043010752688</v>
+        <v>-1.1309041835357625</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="11"/>
-        <v>1.1389250202335528</v>
+        <v>1.2789442723386897</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="12"/>
-        <v>264.23060469418425</v>
+        <v>296.71507118257603</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="C23" s="7">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="9"/>
@@ -2469,15 +2469,15 @@
       </c>
       <c r="E23" s="6">
         <f t="shared" si="10"/>
-        <v>-6.7204301075268813E-2</v>
+        <v>-0.13090418353576247</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="11"/>
-        <v>4.516418083015377E-3</v>
+        <v>1.7135905267164585E-2</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="12"/>
-        <v>0.57810151462596826</v>
+        <v>1.8849495793881044</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="1"/>
@@ -2490,23 +2490,23 @@
       </c>
       <c r="C24" s="7">
         <f t="shared" si="8"/>
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="9"/>
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="10"/>
-        <v>0.93279569892473124</v>
+        <v>0.8690958164642375</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="11"/>
-        <v>0.87010781593247788</v>
+        <v>0.75532753819563958</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="12"/>
-        <v>210.56609145565966</v>
+        <v>203.93843531282269</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="1"/>
@@ -2519,23 +2519,23 @@
       </c>
       <c r="C25" s="7">
         <f t="shared" si="8"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="9"/>
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="10"/>
-        <v>1.9327956989247312</v>
+        <v>1.8690958164642375</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="11"/>
-        <v>3.7356992137819405</v>
+        <v>3.4935191711241145</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="12"/>
-        <v>265.23464417851778</v>
+        <v>241.0528228075639</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="1"/>
@@ -2548,23 +2548,23 @@
       </c>
       <c r="C26" s="7">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="10"/>
-        <v>2.932795698924731</v>
+        <v>2.8690958164642377</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="11"/>
-        <v>8.6012906116314021</v>
+        <v>8.2317108040525913</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="12"/>
-        <v>77.411615504682615</v>
+        <v>57.621975628368141</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
@@ -2577,23 +2577,23 @@
       </c>
       <c r="C27" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="10"/>
-        <v>3.932795698924731</v>
+        <v>3.8690958164642377</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="11"/>
-        <v>15.466882009480864</v>
+        <v>14.969902436981066</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>14.969902436981066</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="1"/>
@@ -2606,23 +2606,23 @@
       </c>
       <c r="C28" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="10"/>
-        <v>4.932795698924731</v>
+        <v>4.8690958164642373</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="11"/>
-        <v>24.332473407330326</v>
+        <v>23.708094069909539</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>23.708094069909539</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="1"/>
@@ -2632,17 +2632,17 @@
       <c r="B29" s="12"/>
       <c r="C29" s="5">
         <f>SUM(C18:C28)</f>
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D29" s="5">
         <f>SUM(D18:D28)</f>
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5">
         <f>SUM(G18:G28)</f>
-        <v>1108.6397849462367</v>
+        <v>1108.3022941970312</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="1"/>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="D33" s="6">
         <f>D29/C29</f>
-        <v>6.7204301075268813E-2</v>
+        <v>0.13090418353576247</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="1"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="D34" s="6">
         <f>G29/C29</f>
-        <v>1.4901072378309632</v>
+        <v>1.4956846075533485</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="1"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="D35" s="6">
         <f>SQRT(D34)</f>
-        <v>1.2206994871101418</v>
+        <v>1.2229818508683392</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="1"/>
@@ -2738,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CD015E-35D1-4646-BA16-39A53C5518A6}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,31 +2802,31 @@
       </c>
       <c r="D2" s="6">
         <f>(B2-$D$33)/$D$35</f>
-        <v>-4.1539636713388637</v>
+        <v>-4.6374227913954016</v>
       </c>
       <c r="E2" s="6">
         <f>_xlfn.NORM.DIST(D2,0,1,1)</f>
-        <v>1.6338253809632177E-5</v>
+        <v>1.7639016147499319E-6</v>
       </c>
       <c r="F2" s="6">
         <f>E2</f>
-        <v>1.6338253809632177E-5</v>
+        <v>1.7639016147499319E-6</v>
       </c>
       <c r="G2" s="6">
         <f>F2*$C$13</f>
-        <v>8.3488476967220424E-3</v>
+        <v>1.7762489260531814E-3</v>
       </c>
       <c r="H2" s="6">
         <f>C2-G2</f>
-        <v>-8.3488476967220424E-3</v>
+        <v>-1.7762489260531814E-3</v>
       </c>
       <c r="I2" s="6">
         <f>H2^2</f>
-        <v>6.9703257863060948E-5</v>
+        <v>3.1550602473050805E-6</v>
       </c>
       <c r="J2" s="6">
         <f>I2/G2</f>
-        <v>8.3488476967220424E-3</v>
+        <v>1.7762489260531814E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2837,35 +2837,35 @@
         <v>-3.5</v>
       </c>
       <c r="C3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D12" si="0">(B3-$D$33)/$D$35</f>
-        <v>-3.1993086517507554</v>
+        <v>-3.5802898540020416</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E12" si="1">_xlfn.NORM.DIST(D3,0,1,1)</f>
-        <v>6.8878799754094129E-4</v>
+        <v>1.716066374427067E-4</v>
       </c>
       <c r="F3" s="6">
         <f>E3-E2</f>
-        <v>6.7244974373130916E-4</v>
+        <v>1.6984273582795677E-4</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G12" si="2">F3*$C$13</f>
-        <v>0.34362181904669897</v>
+        <v>0.17103163497875246</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H12" si="3">C3-G3</f>
-        <v>0.65637818095330103</v>
+        <v>-0.17103163497875246</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I12" si="4">H3^2</f>
-        <v>0.43083231643156439</v>
+        <v>2.9251820163505221E-2</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J12" si="5">I3/G3</f>
-        <v>1.2537979038316345</v>
+        <v>0.17103163497875246</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2876,35 +2876,35 @@
         <v>-2.5</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>-2.2446536321626467</v>
+        <v>-2.5231569166086811</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>1.2395188437386016E-2</v>
+        <v>5.8153244617139927E-3</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F12" si="6">E4-E3</f>
-        <v>1.1706400439845074E-2</v>
+        <v>5.6437178242712861E-3</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="2"/>
-        <v>5.9819706247608329</v>
+        <v>5.6832238490411848</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="3"/>
-        <v>-1.9819706247608329</v>
+        <v>-0.68322384904118483</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="4"/>
-        <v>3.9282075574148463</v>
+        <v>0.46679482789865173</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="5"/>
-        <v>0.65667449805838873</v>
+        <v>8.2135569581234177E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2915,35 +2915,35 @@
         <v>-1.5</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-1.2899986125745382</v>
+        <v>-1.4660239792153207</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>9.8525569910141109E-2</v>
+        <v>7.1320877144263953E-2</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="6"/>
-        <v>8.6130381472755091E-2</v>
+        <v>6.5505552682549956E-2</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="2"/>
-        <v>44.01262493257785</v>
+        <v>65.964091551327812</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="3"/>
-        <v>-5.0126249325778502</v>
+        <v>-5.9640915513278117</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="4"/>
-        <v>25.126408714701096</v>
+        <v>35.570388032619782</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="5"/>
-        <v>0.57089093761600884</v>
+        <v>0.53923865539695703</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2954,35 +2954,35 @@
         <v>-0.5</v>
       </c>
       <c r="C6" s="7">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-0.33534359298642957</v>
+        <v>-0.40889104182196023</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.36868295653597027</v>
+        <v>0.34130981169513042</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="6"/>
-        <v>0.27015738662582917</v>
+        <v>0.26998893455086648</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="2"/>
-        <v>138.05042456579869</v>
+        <v>271.87885709272257</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="3"/>
-        <v>2.9495754342013072</v>
+        <v>-9.8788570927225692</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="4"/>
-        <v>8.6999952420438298</v>
+        <v>97.591817458435017</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="5"/>
-        <v>6.3020416412389729E-2</v>
+        <v>0.35895331656904805</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2993,35 +2993,35 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="7">
-        <v>195</v>
+        <v>436</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.61931142660167904</v>
+        <v>0.64824189557140033</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.73214439083961125</v>
+        <v>0.74158574578469594</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="6"/>
-        <v>0.36346143430364097</v>
+        <v>0.40027593408956552</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>185.72879292916053</v>
+        <v>403.07786562819246</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="3"/>
-        <v>9.2712070708394663</v>
+        <v>32.922134371807545</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="4"/>
-        <v>85.955280550383719</v>
+        <v>1083.8669315953518</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="5"/>
-        <v>0.46279997406308576</v>
+        <v>2.6889765576836053</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3032,35 +3032,35 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="7">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>1.5739664461897878</v>
+        <v>1.7053748329647609</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0.94225239657973348</v>
+        <v>0.9559377305008725</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="6"/>
-        <v>0.21010800574012223</v>
+        <v>0.21435198471617656</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="2"/>
-        <v>107.36519093320246</v>
+        <v>215.85244860918979</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="3"/>
-        <v>-0.36519093320245588</v>
+        <v>-7.8524486091897927</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="4"/>
-        <v>0.13336441769328058</v>
+        <v>61.660949159966712</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="5"/>
-        <v>1.2421569461582163E-3</v>
+        <v>0.28566249564120783</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3071,35 +3071,35 @@
         <v>2.5</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>2.5286214657778965</v>
+        <v>2.7625077703581211</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.99427442723757264</v>
+        <v>0.99713204017786927</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="6"/>
-        <v>5.2022030657839169E-2</v>
+        <v>4.1194309676996776E-2</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>26.583257666155816</v>
+        <v>41.482669844735753</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="3"/>
-        <v>-6.5832576661558164</v>
+        <v>-8.4826698447357529</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="4"/>
-        <v>43.339281498999327</v>
+        <v>71.955687694789276</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="5"/>
-        <v>1.6303224399083436</v>
+        <v>1.7345963498518797</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>30</v>
@@ -3116,35 +3116,35 @@
         <v>3.5</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>3.4832764853660052</v>
+        <v>3.819640707751482</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.99975234173353045</v>
+        <v>0.99993317689797434</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="6"/>
-        <v>5.477914495957803E-3</v>
+        <v>2.8011367201050685E-3</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>2.7992143074344371</v>
+        <v>2.8207446771458038</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="3"/>
-        <v>1.2007856925655629</v>
+        <v>0.17925532285419621</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="4"/>
-        <v>1.4418862794701586</v>
+        <v>3.2132470771562116E-2</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="5"/>
-        <v>0.51510392599832422</v>
+        <v>1.1391485032979182E-2</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>31</v>
@@ -3165,31 +3165,31 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>4.4379315049541139</v>
+        <v>4.8767736451448425</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999545862447192</v>
+        <v>0.99999946082471447</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="6"/>
-        <v>2.4311689094147493E-4</v>
+        <v>6.6283926740129395E-5</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>0.12423273127109369</v>
+        <v>6.6747914227310301E-2</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="3"/>
-        <v>-0.12423273127109369</v>
+        <v>-6.6747914227310301E-2</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="4"/>
-        <v>1.543377151907578E-2</v>
+        <v>4.4552840536963732E-3</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="5"/>
-        <v>0.12423273127109369</v>
+        <v>6.6747914227310301E-2</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>32</v>
@@ -3211,31 +3211,31 @@
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>5.3925865245422226</v>
+        <v>5.9339065825382038</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999996527468082</v>
+        <v>0.99999999852094912</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="6"/>
-        <v>4.5066502089019522E-6</v>
+        <v>5.3769623464816618E-7</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="2"/>
-        <v>2.3028982567488976E-3</v>
+        <v>5.4146010829070335E-4</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="3"/>
-        <v>-2.3028982567488976E-3</v>
+        <v>-5.4146010829070335E-4</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="4"/>
-        <v>5.3033403809371116E-6</v>
+        <v>2.9317904887018021E-7</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="5"/>
-        <v>2.3028982567488976E-3</v>
+        <v>5.4146010829070335E-4</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>33</v>
@@ -3248,23 +3248,23 @@
       <c r="B13" s="12"/>
       <c r="C13" s="15">
         <f>SUM(C2:C12)</f>
-        <v>511</v>
+        <v>1007</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12"/>
       <c r="F13" s="16">
         <f>SUM(F2:F12)</f>
-        <v>0.99999996527468082</v>
+        <v>0.99999999852094912</v>
       </c>
       <c r="G13" s="16">
         <f>SUM(G2:G12)</f>
-        <v>510.99998225536194</v>
+        <v>1006.9999985105958</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="12"/>
       <c r="J13" s="17">
         <f>SUM(J2:J12)</f>
-        <v>5.2887367300588988</v>
+        <v>5.9410516879973176</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>34</v>
@@ -3345,11 +3345,11 @@
       </c>
       <c r="E18" s="6">
         <f>B18-$D$33</f>
-        <v>-4.8512720156555771</v>
+        <v>-4.8867924528301883</v>
       </c>
       <c r="F18" s="6">
         <f>E18^2</f>
-        <v>23.534840169882926</v>
+        <v>23.880740477038088</v>
       </c>
       <c r="G18" s="6">
         <f>F18*C18</f>
@@ -3366,23 +3366,23 @@
       </c>
       <c r="C19" s="7">
         <f t="shared" ref="C19:C28" si="8">C3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" ref="D19:D28" si="9">C19*B19</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" ref="E19:E28" si="10">B19-$D$33</f>
-        <v>-3.8512720156555771</v>
+        <v>-3.8867924528301887</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ref="F19:F28" si="11">E19^2</f>
-        <v>14.832296138571772</v>
+        <v>15.107155571377715</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" ref="G19:G28" si="12">F19*C19</f>
-        <v>14.832296138571772</v>
+        <v>0</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="1"/>
@@ -3395,23 +3395,23 @@
       </c>
       <c r="C20" s="7">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="9"/>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="10"/>
-        <v>-2.8512720156555771</v>
+        <v>-2.8867924528301887</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="11"/>
-        <v>8.129752107260618</v>
+        <v>8.3335706657173372</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="12"/>
-        <v>32.519008429042472</v>
+        <v>41.667853328586688</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="1"/>
@@ -3424,23 +3424,23 @@
       </c>
       <c r="C21" s="7">
         <f t="shared" si="8"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="9"/>
-        <v>-78</v>
+        <v>-120</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="10"/>
-        <v>-1.8512720156555773</v>
+        <v>-1.8867924528301887</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="11"/>
-        <v>3.4272080759494639</v>
+        <v>3.5599857600569598</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="12"/>
-        <v>133.6611149620291</v>
+        <v>213.59914560341758</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
@@ -3453,23 +3453,23 @@
       </c>
       <c r="C22" s="7">
         <f t="shared" si="8"/>
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="9"/>
-        <v>-141</v>
+        <v>-262</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="10"/>
-        <v>-0.85127201565557731</v>
+        <v>-0.8867924528301887</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="11"/>
-        <v>0.72466404463830947</v>
+        <v>0.78640085439658247</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="12"/>
-        <v>102.17763029400163</v>
+        <v>206.03702385190462</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C23" s="7">
         <f t="shared" si="8"/>
-        <v>195</v>
+        <v>436</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="9"/>
@@ -3490,15 +3490,15 @@
       </c>
       <c r="E23" s="6">
         <f t="shared" si="10"/>
-        <v>0.14872798434442269</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="11"/>
-        <v>2.2120013327154842E-2</v>
+        <v>1.2815948736205056E-2</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="12"/>
-        <v>4.3134025987951938</v>
+        <v>5.5877536489854043</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="1"/>
@@ -3511,23 +3511,23 @@
       </c>
       <c r="C24" s="7">
         <f t="shared" si="8"/>
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="9"/>
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="10"/>
-        <v>1.1487279843444227</v>
+        <v>1.1132075471698113</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="11"/>
-        <v>1.3195759820160002</v>
+        <v>1.2392310430758275</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="12"/>
-        <v>141.19463007571201</v>
+        <v>257.7600569597721</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="1"/>
@@ -3540,23 +3540,23 @@
       </c>
       <c r="C25" s="7">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="10"/>
-        <v>2.1487279843444229</v>
+        <v>2.1132075471698113</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="11"/>
-        <v>4.6170319507048463</v>
+        <v>4.4656461374154501</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="12"/>
-        <v>92.340639014096922</v>
+        <v>147.36632253470987</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="1"/>
@@ -3569,23 +3569,23 @@
       </c>
       <c r="C26" s="7">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="10"/>
-        <v>3.1487279843444229</v>
+        <v>3.1132075471698113</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="11"/>
-        <v>9.914487919393693</v>
+        <v>9.6920612317550727</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="12"/>
-        <v>39.657951677574772</v>
+        <v>29.076183695265218</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
@@ -3606,11 +3606,11 @@
       </c>
       <c r="E27" s="6">
         <f t="shared" si="10"/>
-        <v>4.1487279843444229</v>
+        <v>4.1132075471698117</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="11"/>
-        <v>17.211943888082537</v>
+        <v>16.918476326094698</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="12"/>
@@ -3635,11 +3635,11 @@
       </c>
       <c r="E28" s="6">
         <f t="shared" si="10"/>
-        <v>5.1487279843444229</v>
+        <v>5.1132075471698117</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="11"/>
-        <v>26.509399856771385</v>
+        <v>26.144891420434323</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="12"/>
@@ -3653,17 +3653,17 @@
       <c r="B29" s="12"/>
       <c r="C29" s="5">
         <f>SUM(C18:C28)</f>
-        <v>511</v>
+        <v>1007</v>
       </c>
       <c r="D29" s="5">
         <f>SUM(D18:D28)</f>
-        <v>-76</v>
+        <v>-114</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5">
         <f>SUM(G18:G28)</f>
-        <v>560.69667318982397</v>
+        <v>901.09433962264143</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="1"/>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="D33" s="6">
         <f>D29/C29</f>
-        <v>-0.14872798434442269</v>
+        <v>-0.11320754716981132</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="1"/>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="D34" s="6">
         <f>G29/C29</f>
-        <v>1.0972537635808688</v>
+        <v>0.89483052594105406</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="1"/>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="D35" s="6">
         <f>SQRT(D34)</f>
-        <v>1.0474988131644201</v>
+        <v>0.94595482235731221</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="1"/>

--- a/build_Windows/TestChiKwadrat.xlsx
+++ b/build_Windows/TestChiKwadrat.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kanjiklub\Documents\GitHub\CollisionDetectionComparison\build_Windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD444D-5777-474C-B891-ECB49EBABD27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABDC343-7476-4938-B8B6-A733BD8E08FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="5745" windowWidth="25545" windowHeight="14025" activeTab="1" xr2:uid="{A3DFBAF8-C55C-4C09-AC04-CEAFEEF3C92E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{A3DFBAF8-C55C-4C09-AC04-CEAFEEF3C92E}"/>
   </bookViews>
   <sheets>
     <sheet name="AABB" sheetId="1" r:id="rId1"/>
     <sheet name="OBB" sheetId="2" r:id="rId2"/>
-    <sheet name="Metoda dokładna" sheetId="3" r:id="rId3"/>
+    <sheet name="Sfery" sheetId="4" r:id="rId3"/>
+    <sheet name="Metoda dokładna" sheetId="3" r:id="rId4"/>
+    <sheet name="Wyniki" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
   <si>
     <t>Liczba piłeczek</t>
   </si>
@@ -133,12 +135,36 @@
   <si>
     <t>chi2 kryt</t>
   </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>AABB</t>
+  </si>
+  <si>
+    <t>OBB</t>
+  </si>
+  <si>
+    <t>Metoda dokł.</t>
+  </si>
+  <si>
+    <t>Sfery</t>
+  </si>
+  <si>
+    <t>ile dotarło</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +227,40 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -322,11 +382,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -379,6 +598,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -394,6 +667,663 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145439</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>197827</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="404813" cy="191334"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="pole tekstowe 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3581418A-0A14-43CE-B4F2-DF778283DE6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="753418" y="197827"/>
+              <a:ext cx="404813" cy="191334"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="el-GR" sz="1200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>χ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="pole tekstowe 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3581418A-0A14-43CE-B4F2-DF778283DE6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="753418" y="197827"/>
+              <a:ext cx="404813" cy="191334"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>χ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136693</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>191716</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="404813" cy="191334"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="pole tekstowe 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED4AA1B-017C-4EF8-BF20-3E7909B43C98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2568608" y="191716"/>
+              <a:ext cx="404813" cy="191334"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="el-GR" sz="1200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>χ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="pole tekstowe 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED4AA1B-017C-4EF8-BF20-3E7909B43C98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2568608" y="191716"/>
+              <a:ext cx="404813" cy="191334"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>χ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142165</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>194553</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="404813" cy="191334"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="pole tekstowe 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F65DC74-2B46-4054-B6D9-D1C47F5AAC7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4398016" y="194553"/>
+              <a:ext cx="404813" cy="191334"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="el-GR" sz="1200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>χ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="pole tekstowe 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F65DC74-2B46-4054-B6D9-D1C47F5AAC7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4398016" y="194553"/>
+              <a:ext cx="404813" cy="191334"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>χ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>186446</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="404813" cy="191334"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="pole tekstowe 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C558173B-B565-47C7-A3DD-15F139E01C12}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6217899" y="186446"/>
+              <a:ext cx="404813" cy="191334"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="el-GR" sz="1200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>χ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="pole tekstowe 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C558173B-B565-47C7-A3DD-15F139E01C12}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6217899" y="186446"/>
+              <a:ext cx="404813" cy="191334"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>χ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,7 +1626,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,35 +1685,35 @@
         <v>-4.5</v>
       </c>
       <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="e">
+        <v>133</v>
+      </c>
+      <c r="D2" s="6">
         <f>(B2-$D$33)/$D$35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" s="6" t="e">
+        <v>-0.95969963566287275</v>
+      </c>
+      <c r="E2" s="6">
         <f>_xlfn.NORM.DIST(D2,0,1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" s="6" t="e">
+        <v>0.16860320334991064</v>
+      </c>
+      <c r="F2" s="6">
         <f>E2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G2" s="6" t="e">
+        <v>0.16860320334991064</v>
+      </c>
+      <c r="G2" s="6">
         <f>F2*$C$13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H2" s="6" t="e">
+        <v>80.760934404607198</v>
+      </c>
+      <c r="H2" s="6">
         <f>C2-G2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" s="6" t="e">
+        <v>52.239065595392802</v>
+      </c>
+      <c r="I2" s="6">
         <f>H2^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" s="6" t="e">
+        <v>2728.9199742797518</v>
+      </c>
+      <c r="J2" s="6">
         <f>I2/G2</f>
-        <v>#DIV/0!</v>
+        <v>33.790099067056786</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -794,35 +1724,35 @@
         <v>-3.5</v>
       </c>
       <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="e">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D12" si="0">(B3-$D$33)/$D$35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" s="6" t="e">
+        <v>-0.69543052069735622</v>
+      </c>
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E12" si="1">_xlfn.NORM.DIST(D3,0,1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" s="6" t="e">
+        <v>0.24339276953359318</v>
+      </c>
+      <c r="F3" s="6">
         <f>E3-E2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="6" t="e">
+        <v>7.4789566183682543E-2</v>
+      </c>
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G12" si="2">F3*$C$13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="6" t="e">
+        <v>35.824202201983937</v>
+      </c>
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H12" si="3">C3-G3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="6" t="e">
+        <v>-3.8242022019839368</v>
+      </c>
+      <c r="I3" s="6">
         <f t="shared" ref="I3:I12" si="4">H3^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="6" t="e">
+        <v>14.62452248165879</v>
+      </c>
+      <c r="J3" s="6">
         <f t="shared" ref="J3:J12" si="5">I3/G3</f>
-        <v>#DIV/0!</v>
+        <v>0.40823023494571742</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -833,35 +1763,35 @@
         <v>-2.5</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="e">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="6" t="e">
+        <v>-0.43116140573183964</v>
+      </c>
+      <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="6" t="e">
+        <v>0.33317550709158994</v>
+      </c>
+      <c r="F4" s="6">
         <f t="shared" ref="F4:F12" si="6">E4-E3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="6" t="e">
+        <v>8.9782737557996761E-2</v>
+      </c>
+      <c r="G4" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="6" t="e">
+        <v>43.005931290280451</v>
+      </c>
+      <c r="H4" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="6" t="e">
+        <v>-5.9312902804506962E-3</v>
+      </c>
+      <c r="I4" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="6" t="e">
+        <v>3.5180204390968897E-5</v>
+      </c>
+      <c r="J4" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>8.180314513714483E-7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -872,35 +1802,35 @@
         <v>-1.5</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="e">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="6" t="e">
+        <v>-0.16689229076632309</v>
+      </c>
+      <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="6" t="e">
+        <v>0.4337273995771585</v>
+      </c>
+      <c r="F5" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="6" t="e">
+        <v>0.10055189248556856</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="6" t="e">
+        <v>48.164356500587338</v>
+      </c>
+      <c r="H5" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="6" t="e">
+        <v>11.835643499412662</v>
+      </c>
+      <c r="I5" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="6" t="e">
+        <v>140.08245704518919</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.9084257991380196</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -911,35 +1841,35 @@
         <v>-0.5</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="e">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="6" t="e">
+        <v>9.7376824199193496E-2</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="6" t="e">
+        <v>0.53878642557034739</v>
+      </c>
+      <c r="F6" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="6" t="e">
+        <v>0.10505902599318889</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="6" t="e">
+        <v>50.323273450737481</v>
+      </c>
+      <c r="H6" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="6" t="e">
+        <v>-31.323273450737481</v>
+      </c>
+      <c r="I6" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="6" t="e">
+        <v>981.14745966967553</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>19.496892638157604</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -950,35 +1880,35 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="e">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="6" t="e">
+        <v>0.36164593916471011</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="6" t="e">
+        <v>0.64119168475164778</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="6" t="e">
+        <v>0.10240525918130039</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="6" t="e">
+        <v>49.052119147842888</v>
+      </c>
+      <c r="H7" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="6" t="e">
+        <v>-41.052119147842888</v>
+      </c>
+      <c r="I7" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="6" t="e">
+        <v>1685.2764865286886</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>34.356853807870607</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -989,35 +1919,35 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="e">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="6" t="e">
+        <v>0.62591505413022663</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="6" t="e">
+        <v>0.73431467010759388</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="6" t="e">
+        <v>9.3122985355946097E-2</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="6" t="e">
+        <v>44.60590998549818</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="6" t="e">
+        <v>-16.60590998549818</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="6" t="e">
+        <v>275.75624644646814</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>6.1820562911084922</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1028,35 +1958,35 @@
         <v>2.5</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="e">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="6" t="e">
+        <v>0.89018416909574327</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="6" t="e">
+        <v>0.81331649815078888</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="6" t="e">
+        <v>7.9001828043194999E-2</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="6" t="e">
+        <v>37.841875632690403</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="6" t="e">
+        <v>6.1581243673095969</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="6" t="e">
+        <v>37.922495723252226</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.0021304464753373</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>30</v>
@@ -1073,35 +2003,35 @@
         <v>3.5</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="e">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="6" t="e">
+        <v>1.1544532840612598</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="6" t="e">
+        <v>0.87584280970732431</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="6" t="e">
+        <v>6.252631155653543E-2</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="6" t="e">
+        <v>29.950103235580471</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="6" t="e">
+        <v>-23.950103235580471</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="6" t="e">
+        <v>573.60744499496218</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>19.152102431270464</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>31</v>
@@ -1118,35 +2048,35 @@
         <v>4.5</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6" t="e">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="6" t="e">
+        <v>1.4187223990267763</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="6" t="e">
+        <v>0.92201001785247261</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="6" t="e">
+        <v>4.6167208145148297E-2</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="6" t="e">
+        <v>22.114092701526033</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="6" t="e">
+        <v>-3.1140927015260331</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="6" t="e">
+        <v>9.6975733536977078</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.43852458631633146</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>32</v>
@@ -1164,35 +2094,35 @@
         <v>5.5</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="e">
+        <v>87</v>
+      </c>
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="6" t="e">
+        <v>1.6829915139922929</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="6" t="e">
+        <v>0.95381163289819537</v>
+      </c>
+      <c r="F12" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="6" t="e">
+        <v>3.1801615045722764E-2</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="6" t="e">
+        <v>15.232973606901204</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="6" t="e">
+        <v>71.767026393098803</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="6" t="e">
+        <v>5150.5060773077403</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>338.11560436068339</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>33</v>
@@ -1205,23 +2135,23 @@
       <c r="B13" s="12"/>
       <c r="C13" s="15">
         <f>SUM(C2:C12)</f>
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="16" t="e">
+      <c r="F13" s="16">
         <f>SUM(F2:F12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="16" t="e">
+        <v>0.95381163289819537</v>
+      </c>
+      <c r="G13" s="16">
         <f>SUM(G2:G12)</f>
-        <v>#DIV/0!</v>
+        <v>456.87577215823552</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="17" t="e">
+      <c r="J13" s="17">
         <f>SUM(J2:J12)</f>
-        <v>#DIV/0!</v>
+        <v>455.85092048105423</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>34</v>
@@ -1294,23 +2224,23 @@
       </c>
       <c r="C18" s="7">
         <f>C2</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D18" s="6">
         <f>C18*B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="6" t="e">
+        <v>-665</v>
+      </c>
+      <c r="E18" s="6">
         <f>B18-$D$33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="6" t="e">
+        <v>-4.1315240083507305</v>
+      </c>
+      <c r="F18" s="6">
         <f>E18^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="6" t="e">
+        <v>17.069490631578486</v>
+      </c>
+      <c r="G18" s="6">
         <f>F18*C18</f>
-        <v>#DIV/0!</v>
+        <v>2270.2422539999384</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="1"/>
@@ -1323,23 +2253,23 @@
       </c>
       <c r="C19" s="7">
         <f t="shared" ref="C19:C28" si="8">C3</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" ref="D19:D28" si="9">C19*B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="e">
+        <v>-128</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" ref="E19:E28" si="10">B19-$D$33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="6" t="e">
+        <v>-3.1315240083507305</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" ref="F19:F28" si="11">E19^2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="6" t="e">
+        <v>9.8064426148770263</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" ref="G19:G28" si="12">F19*C19</f>
-        <v>#DIV/0!</v>
+        <v>313.80616367606484</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="1"/>
@@ -1352,23 +2282,23 @@
       </c>
       <c r="C20" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="6" t="e">
+        <v>-129</v>
+      </c>
+      <c r="E20" s="6">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="6" t="e">
+        <v>-2.1315240083507305</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="6" t="e">
+        <v>4.5433945981755652</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>195.36596772154931</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="1"/>
@@ -1381,23 +2311,23 @@
       </c>
       <c r="C21" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="6" t="e">
+        <v>-120</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="6" t="e">
+        <v>-1.1315240083507305</v>
+      </c>
+      <c r="F21" s="6">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="6" t="e">
+        <v>1.2803465814741042</v>
+      </c>
+      <c r="G21" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>76.820794888446244</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
@@ -1410,23 +2340,23 @@
       </c>
       <c r="C22" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="6" t="e">
+        <v>-19</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="6" t="e">
+        <v>-0.13152400835073064</v>
+      </c>
+      <c r="F22" s="6">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="6" t="e">
+        <v>1.7298564772643063E-2</v>
+      </c>
+      <c r="G22" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.32867273068021818</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
@@ -1439,23 +2369,23 @@
       </c>
       <c r="C23" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E23" s="6" t="e">
+      <c r="E23" s="6">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="6" t="e">
+        <v>0.86847599164926936</v>
+      </c>
+      <c r="F23" s="6">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="6" t="e">
+        <v>0.75425054807118175</v>
+      </c>
+      <c r="G23" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>6.034004384569454</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="1"/>
@@ -1468,23 +2398,23 @@
       </c>
       <c r="C24" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="6" t="e">
+        <v>28</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="6" t="e">
+        <v>1.8684759916492695</v>
+      </c>
+      <c r="F24" s="6">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="6" t="e">
+        <v>3.491202531369721</v>
+      </c>
+      <c r="G24" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>97.753670878352182</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="1"/>
@@ -1497,23 +2427,23 @@
       </c>
       <c r="C25" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="e">
+        <v>88</v>
+      </c>
+      <c r="E25" s="6">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="6" t="e">
+        <v>2.8684759916492695</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="6" t="e">
+        <v>8.22815451466826</v>
+      </c>
+      <c r="G25" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>362.03879864540346</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="1"/>
@@ -1526,23 +2456,23 @@
       </c>
       <c r="C26" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="6" t="e">
+        <v>18</v>
+      </c>
+      <c r="E26" s="6">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="6" t="e">
+        <v>3.8684759916492695</v>
+      </c>
+      <c r="F26" s="6">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="6" t="e">
+        <v>14.965106497966799</v>
+      </c>
+      <c r="G26" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>89.79063898780079</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
@@ -1555,23 +2485,23 @@
       </c>
       <c r="C27" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="6" t="e">
+        <v>76</v>
+      </c>
+      <c r="E27" s="6">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="6" t="e">
+        <v>4.8684759916492695</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="6" t="e">
+        <v>23.702058481265336</v>
+      </c>
+      <c r="G27" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>450.3391111440414</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="1"/>
@@ -1584,23 +2514,23 @@
       </c>
       <c r="C28" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="6" t="e">
+        <v>435</v>
+      </c>
+      <c r="E28" s="6">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="6" t="e">
+        <v>5.8684759916492695</v>
+      </c>
+      <c r="F28" s="6">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="6" t="e">
+        <v>34.439010464563879</v>
+      </c>
+      <c r="G28" s="6">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2996.1939104170574</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="1"/>
@@ -1610,17 +2540,17 @@
       <c r="B29" s="12"/>
       <c r="C29" s="5">
         <f>SUM(C18:C28)</f>
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="D29" s="5">
         <f>SUM(D18:D28)</f>
-        <v>0</v>
+        <v>-416</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="5" t="e">
+      <c r="G29" s="5">
         <f>SUM(G18:G28)</f>
-        <v>#DIV/0!</v>
+        <v>6858.7139874739041</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="1"/>
@@ -1664,9 +2594,9 @@
       <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="6" t="e">
+      <c r="D33" s="6">
         <f>D29/C29</f>
-        <v>#DIV/0!</v>
+        <v>-0.86847599164926936</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="1"/>
@@ -1680,9 +2610,9 @@
       <c r="C34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="6" t="e">
+      <c r="D34" s="6">
         <f>G29/C29</f>
-        <v>#DIV/0!</v>
+        <v>14.318818345457002</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="1"/>
@@ -1696,9 +2626,9 @@
       <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="6" t="e">
+      <c r="D35" s="6">
         <f>SQRT(D34)</f>
-        <v>#DIV/0!</v>
+        <v>3.7840214515059243</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="1"/>
@@ -1717,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC8201-C491-418E-9356-2E604BF49263}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,31 +2711,31 @@
       </c>
       <c r="D2" s="6">
         <f>(B2-$D$33)/$D$35</f>
-        <v>-3.7865681982506421</v>
+        <v>-2.3130250980174338</v>
       </c>
       <c r="E2" s="6">
         <f>_xlfn.NORM.DIST(D2,0,1,1)</f>
-        <v>7.6371094332392217E-5</v>
+        <v>1.0360629639431873E-2</v>
       </c>
       <c r="F2" s="6">
         <f>E2</f>
-        <v>7.6371094332392217E-5</v>
+        <v>1.0360629639431873E-2</v>
       </c>
       <c r="G2" s="6">
         <f>F2*$C$13</f>
-        <v>5.659098090030263E-2</v>
+        <v>8.0398486001991341</v>
       </c>
       <c r="H2" s="6">
         <f>C2-G2</f>
-        <v>-5.659098090030263E-2</v>
+        <v>-8.0398486001991341</v>
       </c>
       <c r="I2" s="6">
         <f>H2^2</f>
-        <v>3.2025391192584173E-3</v>
+        <v>64.639165514123974</v>
       </c>
       <c r="J2" s="6">
         <f>I2/G2</f>
-        <v>5.6590980900302637E-2</v>
+        <v>8.0398486001991341</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1816,35 +2746,35 @@
         <v>-3.5</v>
       </c>
       <c r="C3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D12" si="0">(B3-$D$33)/$D$35</f>
-        <v>-2.9688945759560985</v>
+        <v>-1.8000478256363164</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E12" si="1">_xlfn.NORM.DIST(D3,0,1,1)</f>
-        <v>1.4943655759868026E-3</v>
+        <v>3.5926543433888368E-2</v>
       </c>
       <c r="F3" s="6">
         <f>E3-E2</f>
-        <v>1.4179944816544105E-3</v>
+        <v>2.5565913794456496E-2</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G12" si="2">F3*$C$13</f>
-        <v>1.0507339109059182</v>
+        <v>19.83914910449824</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H12" si="3">C3-G3</f>
-        <v>-1.0507339109059182</v>
+        <v>-9.8391491044982402</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I12" si="4">H3^2</f>
-        <v>1.1040417515276459</v>
+        <v>96.808855100548527</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J12" si="5">I3/G3</f>
-        <v>1.0507339109059182</v>
+        <v>4.879687863155306</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1855,35 +2785,35 @@
         <v>-2.5</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>-2.151220953661555</v>
+        <v>-1.2870705532551994</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>1.572938195977322E-2</v>
+        <v>9.9034848987162319E-2</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F12" si="6">E4-E3</f>
-        <v>1.4235016383786417E-2</v>
+        <v>6.3108305553273958E-2</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="2"/>
-        <v>10.548147140385735</v>
+        <v>48.972045109340591</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="3"/>
-        <v>-3.5481471403857352</v>
+        <v>24.027954890659409</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="4"/>
-        <v>12.589348129827471</v>
+        <v>577.34261622756344</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="5"/>
-        <v>1.1935127527399179</v>
+        <v>11.789228220682274</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1894,35 +2824,35 @@
         <v>-1.5</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-1.3335473313670116</v>
+        <v>-0.77409328087408247</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>9.1176126899420271E-2</v>
+        <v>0.21943781530887513</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="6"/>
-        <v>7.5446744939647051E-2</v>
+        <v>0.12040296632171281</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="2"/>
-        <v>55.906038000278464</v>
+        <v>93.432701865649136</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="3"/>
-        <v>-11.906038000278464</v>
+        <v>24.567298134350864</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="4"/>
-        <v>141.75374086407481</v>
+        <v>603.55213762207939</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="5"/>
-        <v>2.5355712179669885</v>
+        <v>6.4597525873751644</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1933,35 +2863,35 @@
         <v>-0.5</v>
       </c>
       <c r="C6" s="7">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-0.51587370907246832</v>
+        <v>-0.26111600849296546</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.3029713087753142</v>
+        <v>0.39700152341258149</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="6"/>
-        <v>0.21179518187589391</v>
+        <v>0.17756370810370636</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="2"/>
-        <v>156.94022977003738</v>
+        <v>137.78943748847612</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="3"/>
-        <v>75.059770229962623</v>
+        <v>8.2105625115238752</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="4"/>
-        <v>5633.9691069747832</v>
+        <v>67.41333675564124</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="5"/>
-        <v>35.898820303947367</v>
+        <v>0.48924894378264144</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1972,35 +2902,35 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="7">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.30179991322207506</v>
+        <v>0.2518612638881515</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.61859770148698079</v>
+        <v>0.59942584925405129</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="6"/>
-        <v>0.31562639271166659</v>
+        <v>0.2024243258414698</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>233.87915699934496</v>
+        <v>157.08127685298055</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="3"/>
-        <v>-123.87915699934496</v>
+        <v>-86.081276852980551</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="4"/>
-        <v>15346.045538868357</v>
+        <v>7409.986224639485</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="5"/>
-        <v>65.615276434878453</v>
+        <v>47.172943670268388</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2011,35 +2941,35 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="7">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>1.1194735355166185</v>
+        <v>0.76483853626926857</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0.86853091254671466</v>
+        <v>0.77781615129485515</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="6"/>
-        <v>0.24993321105973387</v>
+        <v>0.17839030204080386</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="2"/>
-        <v>185.2005093952628</v>
+        <v>138.43087438366379</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="3"/>
-        <v>84.799490604737201</v>
+        <v>45.569125616336208</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="4"/>
-        <v>7190.9536068229127</v>
+        <v>2076.5452094374286</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="5"/>
-        <v>38.827936436587621</v>
+        <v>15.000593030151961</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2050,35 +2980,35 @@
         <v>2.5</v>
       </c>
       <c r="C9" s="7">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>1.9371471578111621</v>
+        <v>1.2778158086503855</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.97363632125834543</v>
+        <v>0.89934281050988107</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="6"/>
-        <v>0.10510540871163077</v>
+        <v>0.12152665921502592</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>77.8831078553184</v>
+        <v>94.304687550860109</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="3"/>
-        <v>-8.8831078553184</v>
+        <v>-14.304687550860109</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="4"/>
-        <v>78.909605169219461</v>
+        <v>204.62408592773218</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="5"/>
-        <v>1.0131799737089069</v>
+        <v>2.1698188206962135</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>30</v>
@@ -2095,35 +3025,35 @@
         <v>3.5</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>2.7548207801057054</v>
+        <v>1.7907930810315025</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.99706378535808371</v>
+        <v>0.96333674700703775</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="6"/>
-        <v>2.3427464099738282E-2</v>
+        <v>6.3993936497156678E-2</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>17.359750897906068</v>
+        <v>49.659294721793586</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="3"/>
-        <v>-10.359750897906068</v>
+        <v>27.340705278206414</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="4"/>
-        <v>107.32443866666557</v>
+        <v>747.51416510974411</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="5"/>
-        <v>6.1823720454197897</v>
+        <v>15.052855045516553</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>31</v>
@@ -2140,35 +3070,35 @@
         <v>4.5</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>3.5724944024002485</v>
+        <v>2.3037703534126193</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0.99982320147818871</v>
+        <v>0.98938223091847655</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="6"/>
-        <v>2.759416120104996E-3</v>
+        <v>2.6045483911438794E-2</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>2.0447273449978018</v>
+        <v>20.211295515276504</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="3"/>
-        <v>-1.0447273449978018</v>
+        <v>-8.2112955152765039</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="4"/>
-        <v>1.091455225386156</v>
+        <v>67.425374039200022</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="5"/>
-        <v>0.53379010558854212</v>
+        <v>3.3360243527307407</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>32</v>
@@ -2186,35 +3116,35 @@
         <v>5.5</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>4.3901680246947921</v>
+        <v>2.8167476257937363</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999433684459438</v>
+        <v>0.99757436851919179</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="6"/>
-        <v>1.7113536640567251E-4</v>
+        <v>8.1921376007152436E-3</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="2"/>
-        <v>0.12681130650660333</v>
+        <v>6.357098778155029</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="3"/>
-        <v>0.87318869349339667</v>
+        <v>-1.357098778155029</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="4"/>
-        <v>0.76245849444470504</v>
+        <v>1.8417170936698726</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="5"/>
-        <v>6.0125434825088115</v>
+        <v>0.28971031565508876</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>33</v>
@@ -2227,23 +3157,23 @@
       <c r="B13" s="12"/>
       <c r="C13" s="15">
         <f>SUM(C2:C12)</f>
-        <v>741</v>
+        <v>776</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12"/>
       <c r="F13" s="16">
         <f>SUM(F2:F12)</f>
-        <v>0.99999433684459438</v>
+        <v>0.99757436851919179</v>
       </c>
       <c r="G13" s="16">
         <f>SUM(G2:G12)</f>
-        <v>740.9958036018445</v>
+        <v>774.11770997089275</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="12"/>
       <c r="J13" s="17">
         <f>SUM(J2:J12)</f>
-        <v>158.92032764515261</v>
+        <v>114.67971145021346</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>34</v>
@@ -2324,11 +3254,11 @@
       </c>
       <c r="E18" s="6">
         <f>B18-$D$33</f>
-        <v>-5.1309041835357627</v>
+        <v>-5.0090206185567014</v>
       </c>
       <c r="F18" s="6">
         <f>E18^2</f>
-        <v>26.326177740624793</v>
+        <v>25.09028755712616</v>
       </c>
       <c r="G18" s="6">
         <f>F18*C18</f>
@@ -2345,23 +3275,23 @@
       </c>
       <c r="C19" s="7">
         <f t="shared" ref="C19:C28" si="8">C3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" ref="D19:D28" si="9">C19*B19</f>
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" ref="E19:E28" si="10">B19-$D$33</f>
-        <v>-4.1309041835357627</v>
+        <v>-4.0090206185567014</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ref="F19:F28" si="11">E19^2</f>
-        <v>17.064369373553266</v>
+        <v>16.072246320012756</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" ref="G19:G28" si="12">F19*C19</f>
-        <v>0</v>
+        <v>160.72246320012755</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="1"/>
@@ -2374,23 +3304,23 @@
       </c>
       <c r="C20" s="7">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="9"/>
-        <v>-21</v>
+        <v>-219</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="10"/>
-        <v>-3.1309041835357623</v>
+        <v>-3.009020618556701</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="11"/>
-        <v>9.8025610064817386</v>
+        <v>9.054205082899351</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="12"/>
-        <v>68.61792704537217</v>
+        <v>660.95697105165266</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="1"/>
@@ -2403,23 +3333,23 @@
       </c>
       <c r="C21" s="7">
         <f t="shared" si="8"/>
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="9"/>
-        <v>-88</v>
+        <v>-236</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="10"/>
-        <v>-2.1309041835357623</v>
+        <v>-2.009020618556701</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="11"/>
-        <v>4.540752639410214</v>
+        <v>4.0361638457859499</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="12"/>
-        <v>199.79311613404943</v>
+        <v>476.26733380274209</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
@@ -2432,23 +3362,23 @@
       </c>
       <c r="C22" s="7">
         <f t="shared" si="8"/>
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="9"/>
-        <v>-232</v>
+        <v>-146</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="10"/>
-        <v>-1.1309041835357625</v>
+        <v>-1.009020618556701</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="11"/>
-        <v>1.2789442723386897</v>
+        <v>1.0181226086725474</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="12"/>
-        <v>296.71507118257603</v>
+        <v>148.64590086619194</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
@@ -2461,7 +3391,7 @@
       </c>
       <c r="C23" s="7">
         <f t="shared" si="8"/>
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="9"/>
@@ -2469,15 +3399,15 @@
       </c>
       <c r="E23" s="6">
         <f t="shared" si="10"/>
-        <v>-0.13090418353576247</v>
+        <v>-9.0206185567010301E-3</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="11"/>
-        <v>1.7135905267164585E-2</v>
+        <v>8.1371559145498976E-5</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="12"/>
-        <v>1.8849495793881044</v>
+        <v>5.7773806993304273E-3</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="1"/>
@@ -2490,23 +3420,23 @@
       </c>
       <c r="C24" s="7">
         <f t="shared" si="8"/>
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="9"/>
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="10"/>
-        <v>0.8690958164642375</v>
+        <v>0.990979381443299</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="11"/>
-        <v>0.75532753819563958</v>
+        <v>0.98204013444574345</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="12"/>
-        <v>203.93843531282269</v>
+        <v>180.6953847380168</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="1"/>
@@ -2519,23 +3449,23 @@
       </c>
       <c r="C25" s="7">
         <f t="shared" si="8"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="9"/>
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="10"/>
-        <v>1.8690958164642375</v>
+        <v>1.990979381443299</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="11"/>
-        <v>3.4935191711241145</v>
+        <v>3.9639988973323415</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="12"/>
-        <v>241.0528228075639</v>
+        <v>317.11991178658729</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="1"/>
@@ -2548,23 +3478,23 @@
       </c>
       <c r="C26" s="7">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="10"/>
-        <v>2.8690958164642377</v>
+        <v>2.990979381443299</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="11"/>
-        <v>8.2317108040525913</v>
+        <v>8.945957660218939</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="12"/>
-        <v>57.621975628368141</v>
+        <v>688.83873983685828</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
@@ -2577,23 +3507,23 @@
       </c>
       <c r="C27" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="10"/>
-        <v>3.8690958164642377</v>
+        <v>3.990979381443299</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="11"/>
-        <v>14.969902436981066</v>
+        <v>15.927916423105538</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="12"/>
-        <v>14.969902436981066</v>
+        <v>191.13499707726646</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="1"/>
@@ -2606,23 +3536,23 @@
       </c>
       <c r="C28" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="10"/>
-        <v>4.8690958164642373</v>
+        <v>4.9909793814432986</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="11"/>
-        <v>23.708094069909539</v>
+        <v>24.909875185992131</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="12"/>
-        <v>23.708094069909539</v>
+        <v>124.54937592996066</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="1"/>
@@ -2632,17 +3562,17 @@
       <c r="B29" s="12"/>
       <c r="C29" s="5">
         <f>SUM(C18:C28)</f>
-        <v>741</v>
+        <v>776</v>
       </c>
       <c r="D29" s="5">
         <f>SUM(D18:D28)</f>
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5">
         <f>SUM(G18:G28)</f>
-        <v>1108.3022941970312</v>
+        <v>2948.9368556701029</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="1"/>
@@ -2688,7 +3618,7 @@
       </c>
       <c r="D33" s="6">
         <f>D29/C29</f>
-        <v>0.13090418353576247</v>
+        <v>9.0206185567010301E-3</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="1"/>
@@ -2704,7 +3634,7 @@
       </c>
       <c r="D34" s="6">
         <f>G29/C29</f>
-        <v>1.4956846075533485</v>
+        <v>3.8001763603996173</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="1"/>
@@ -2720,7 +3650,7 @@
       </c>
       <c r="D35" s="6">
         <f>SQRT(D34)</f>
-        <v>1.2229818508683392</v>
+        <v>1.9494041039249961</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="1"/>
@@ -2735,10 +3665,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CD015E-35D1-4646-BA16-39A53C5518A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2BD132-C4B7-4CAC-BE39-D0D9B04272AD}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -2802,31 +3732,31 @@
       </c>
       <c r="D2" s="6">
         <f>(B2-$D$33)/$D$35</f>
-        <v>-4.6374227913954016</v>
+        <v>-4.9430903644072091</v>
       </c>
       <c r="E2" s="6">
         <f>_xlfn.NORM.DIST(D2,0,1,1)</f>
-        <v>1.7639016147499319E-6</v>
+        <v>3.844691002625994E-7</v>
       </c>
       <c r="F2" s="6">
         <f>E2</f>
-        <v>1.7639016147499319E-6</v>
+        <v>3.844691002625994E-7</v>
       </c>
       <c r="G2" s="6">
         <f>F2*$C$13</f>
-        <v>1.7762489260531814E-3</v>
+        <v>3.8754485306470018E-4</v>
       </c>
       <c r="H2" s="6">
         <f>C2-G2</f>
-        <v>-1.7762489260531814E-3</v>
+        <v>-3.8754485306470018E-4</v>
       </c>
       <c r="I2" s="6">
         <f>H2^2</f>
-        <v>3.1550602473050805E-6</v>
-      </c>
-      <c r="J2" s="6">
+        <v>1.5019101313694005E-7</v>
+      </c>
+      <c r="J2" s="18">
         <f>I2/G2</f>
-        <v>1.7762489260531814E-3</v>
+        <v>3.8754485306470018E-4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2841,31 +3771,31 @@
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D12" si="0">(B3-$D$33)/$D$35</f>
-        <v>-3.5802898540020416</v>
+        <v>-3.830895032415587</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E12" si="1">_xlfn.NORM.DIST(D3,0,1,1)</f>
-        <v>1.716066374427067E-4</v>
+        <v>6.3838984636713168E-5</v>
       </c>
       <c r="F3" s="6">
         <f>E3-E2</f>
-        <v>1.6984273582795677E-4</v>
+        <v>6.3454515536450572E-5</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G12" si="2">F3*$C$13</f>
-        <v>0.17103163497875246</v>
+        <v>6.3962151660742178E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H12" si="3">C3-G3</f>
-        <v>-0.17103163497875246</v>
+        <v>-6.3962151660742178E-2</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I12" si="4">H3^2</f>
-        <v>2.9251820163505221E-2</v>
-      </c>
-      <c r="J3" s="6">
+        <v>4.0911568450717837E-3</v>
+      </c>
+      <c r="J3" s="18">
         <f t="shared" ref="J3:J12" si="5">I3/G3</f>
-        <v>0.17103163497875246</v>
+        <v>6.3962151660742178E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2876,35 +3806,35 @@
         <v>-2.5</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>-2.5231569166086811</v>
+        <v>-2.718699700423965</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>5.8153244617139927E-3</v>
+        <v>3.2769539944602108E-3</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F12" si="6">E4-E3</f>
-        <v>5.6437178242712861E-3</v>
+        <v>3.2131150098234978E-3</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="2"/>
-        <v>5.6832238490411848</v>
+        <v>3.2388199299020859</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="3"/>
-        <v>-0.68322384904118483</v>
+        <v>2.7611800700979141</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="4"/>
-        <v>0.46679482789865173</v>
-      </c>
-      <c r="J4" s="6">
+        <v>7.6241153795059216</v>
+      </c>
+      <c r="J4" s="18">
         <f t="shared" si="5"/>
-        <v>8.2135569581234177E-2</v>
+        <v>2.3539793951238313</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2915,35 +3845,35 @@
         <v>-1.5</v>
       </c>
       <c r="C5" s="7">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>-1.4660239792153207</v>
+        <v>-1.606504368432343</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>7.1320877144263953E-2</v>
+        <v>5.4081567947441817E-2</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="6"/>
-        <v>6.5505552682549956E-2</v>
+        <v>5.0804613952981609E-2</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="2"/>
-        <v>65.964091551327812</v>
+        <v>51.211050864605461</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="3"/>
-        <v>-5.9640915513278117</v>
+        <v>-17.211050864605461</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="4"/>
-        <v>35.570388032619782</v>
-      </c>
-      <c r="J5" s="6">
+        <v>296.22027186403642</v>
+      </c>
+      <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>0.53923865539695703</v>
+        <v>5.7843037169301512</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2954,35 +3884,35 @@
         <v>-0.5</v>
       </c>
       <c r="C6" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>-0.40889104182196023</v>
+        <v>-0.49430903644072088</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.34130981169513042</v>
+        <v>0.31054397212941848</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="6"/>
-        <v>0.26998893455086648</v>
+        <v>0.25646240418197663</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="2"/>
-        <v>271.87885709272257</v>
+        <v>258.51410341543243</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="3"/>
-        <v>-9.8788570927225692</v>
+        <v>7.4858965845675698</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="4"/>
-        <v>97.591817458435017</v>
-      </c>
-      <c r="J6" s="6">
+        <v>56.038647674840405</v>
+      </c>
+      <c r="J6" s="18">
         <f t="shared" si="5"/>
-        <v>0.35895331656904805</v>
+        <v>0.21677211004920005</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2993,35 +3923,35 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="7">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.64824189557140033</v>
+        <v>0.61788629555090113</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.74158574578469594</v>
+        <v>0.73167485332770366</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="6"/>
-        <v>0.40027593408956552</v>
+        <v>0.42113088119828518</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>403.07786562819246</v>
+        <v>424.49992824787148</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="3"/>
-        <v>32.922134371807545</v>
+        <v>14.50007175212852</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="4"/>
-        <v>1083.8669315953518</v>
-      </c>
-      <c r="J7" s="6">
+        <v>210.25208081687543</v>
+      </c>
+      <c r="J7" s="18">
         <f t="shared" si="5"/>
-        <v>2.6889765576836053</v>
+        <v>0.49529356031859278</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3032,35 +3962,35 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="7">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>1.7053748329647609</v>
+        <v>1.7300816275425233</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0.9559377305008725</v>
+        <v>0.9581921538740712</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="6"/>
-        <v>0.21435198471617656</v>
+        <v>0.22651730054636754</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="2"/>
-        <v>215.85244860918979</v>
+        <v>228.32943895073848</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="3"/>
-        <v>-7.8524486091897927</v>
+        <v>1.6705610492615222</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="4"/>
-        <v>61.660949159966712</v>
-      </c>
-      <c r="J8" s="6">
+        <v>2.7907742193097578</v>
+      </c>
+      <c r="J8" s="18">
         <f t="shared" si="5"/>
-        <v>0.28566249564120783</v>
+        <v>1.2222577308184341E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3075,31 +4005,31 @@
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>2.7625077703581211</v>
+        <v>2.8422769595341451</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.99713204017786927</v>
+        <v>0.99776037196847789</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="6"/>
-        <v>4.1194309676996776E-2</v>
+        <v>3.9568218094406693E-2</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>41.482669844735753</v>
+        <v>39.884763839161948</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="3"/>
-        <v>-8.4826698447357529</v>
+        <v>-6.8847638391619483</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="4"/>
-        <v>71.955687694789276</v>
-      </c>
-      <c r="J9" s="6">
+        <v>47.399973121031969</v>
+      </c>
+      <c r="J9" s="18">
         <f t="shared" si="5"/>
-        <v>1.7345963498518797</v>
+        <v>1.18842306080025</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>30</v>
@@ -3116,35 +4046,35 @@
         <v>3.5</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>3.819640707751482</v>
+        <v>3.9544722915257671</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.99993317689797434</v>
+        <v>0.99996164811998534</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="6"/>
-        <v>2.8011367201050685E-3</v>
+        <v>2.2012761515074475E-3</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>2.8207446771458038</v>
+        <v>2.2188863607195071</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="3"/>
-        <v>0.17925532285419621</v>
+        <v>-2.2188863607195071</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="4"/>
-        <v>3.2132470771562116E-2</v>
-      </c>
-      <c r="J10" s="6">
+        <v>4.9234566817870586</v>
+      </c>
+      <c r="J10" s="18">
         <f t="shared" si="5"/>
-        <v>1.1391485032979182E-2</v>
+        <v>2.2188863607195071</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>31</v>
@@ -3165,31 +4095,31 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>4.8767736451448425</v>
+        <v>5.0666676235173886</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999946082471447</v>
+        <v>0.99999979757986912</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="6"/>
-        <v>6.6283926740129395E-5</v>
+        <v>3.8149459883785042E-5</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>6.6747914227310301E-2</v>
+        <v>3.8454655562855322E-2</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="3"/>
-        <v>-6.6747914227310301E-2</v>
+        <v>-3.8454655562855322E-2</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="4"/>
-        <v>4.4552840536963732E-3</v>
-      </c>
-      <c r="J11" s="6">
+        <v>1.4787605344578397E-3</v>
+      </c>
+      <c r="J11" s="18">
         <f t="shared" si="5"/>
-        <v>6.6747914227310301E-2</v>
+        <v>3.8454655562855322E-2</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>32</v>
@@ -3211,31 +4141,31 @@
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>5.9339065825382038</v>
+        <v>6.1788629555090111</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999852094912</v>
+        <v>0.99999999967717546</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="6"/>
-        <v>5.3769623464816618E-7</v>
+        <v>2.0209730633435896E-7</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="2"/>
-        <v>5.4146010829070335E-4</v>
+        <v>2.0371408478503383E-4</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="3"/>
-        <v>-5.4146010829070335E-4</v>
+        <v>-2.0371408478503383E-4</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="4"/>
-        <v>2.9317904887018021E-7</v>
-      </c>
-      <c r="J12" s="6">
+        <v>4.1499428339803953E-8</v>
+      </c>
+      <c r="J12" s="18">
         <f t="shared" si="5"/>
-        <v>5.4146010829070335E-4</v>
+        <v>2.0371408478503383E-4</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>33</v>
@@ -3248,23 +4178,23 @@
       <c r="B13" s="12"/>
       <c r="C13" s="15">
         <f>SUM(C2:C12)</f>
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12"/>
       <c r="F13" s="16">
         <f>SUM(F2:F12)</f>
-        <v>0.99999999852094912</v>
+        <v>0.99999999967717534</v>
       </c>
       <c r="G13" s="16">
         <f>SUM(G2:G12)</f>
-        <v>1006.9999985105958</v>
+        <v>1007.9999996745928</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="12"/>
       <c r="J13" s="17">
         <f>SUM(J2:J12)</f>
-        <v>5.9410516879973176</v>
+        <v>12.372888847411167</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>34</v>
@@ -3345,11 +4275,11 @@
       </c>
       <c r="E18" s="6">
         <f>B18-$D$33</f>
-        <v>-4.8867924528301883</v>
+        <v>-4.9444444444444446</v>
       </c>
       <c r="F18" s="6">
         <f>E18^2</f>
-        <v>23.880740477038088</v>
+        <v>24.447530864197532</v>
       </c>
       <c r="G18" s="6">
         <f>F18*C18</f>
@@ -3374,11 +4304,11 @@
       </c>
       <c r="E19" s="6">
         <f t="shared" ref="E19:E28" si="10">B19-$D$33</f>
-        <v>-3.8867924528301887</v>
+        <v>-3.9444444444444446</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ref="F19:F28" si="11">E19^2</f>
-        <v>15.107155571377715</v>
+        <v>15.558641975308644</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" ref="G19:G28" si="12">F19*C19</f>
@@ -3395,23 +4325,23 @@
       </c>
       <c r="C20" s="7">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="9"/>
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="10"/>
-        <v>-2.8867924528301887</v>
+        <v>-2.9444444444444446</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="11"/>
-        <v>8.3335706657173372</v>
+        <v>8.669753086419755</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="12"/>
-        <v>41.667853328586688</v>
+        <v>52.018518518518533</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="1"/>
@@ -3424,23 +4354,23 @@
       </c>
       <c r="C21" s="7">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="9"/>
-        <v>-120</v>
+        <v>-68</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="10"/>
-        <v>-1.8867924528301887</v>
+        <v>-1.9444444444444444</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="11"/>
-        <v>3.5599857600569598</v>
+        <v>3.7808641975308639</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="12"/>
-        <v>213.59914560341758</v>
+        <v>128.54938271604937</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
@@ -3453,23 +4383,23 @@
       </c>
       <c r="C22" s="7">
         <f t="shared" si="8"/>
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="9"/>
-        <v>-262</v>
+        <v>-266</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="10"/>
-        <v>-0.8867924528301887</v>
+        <v>-0.94444444444444442</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="11"/>
-        <v>0.78640085439658247</v>
+        <v>0.89197530864197527</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="12"/>
-        <v>206.03702385190462</v>
+        <v>237.26543209876542</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
@@ -3482,7 +4412,7 @@
       </c>
       <c r="C23" s="7">
         <f t="shared" si="8"/>
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="9"/>
@@ -3490,15 +4420,15 @@
       </c>
       <c r="E23" s="6">
         <f t="shared" si="10"/>
-        <v>0.11320754716981132</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="11"/>
-        <v>1.2815948736205056E-2</v>
+        <v>3.0864197530864196E-3</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="12"/>
-        <v>5.5877536489854043</v>
+        <v>1.3549382716049383</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="1"/>
@@ -3511,23 +4441,23 @@
       </c>
       <c r="C24" s="7">
         <f t="shared" si="8"/>
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="9"/>
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="10"/>
-        <v>1.1132075471698113</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="11"/>
-        <v>1.2392310430758275</v>
+        <v>1.1141975308641976</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="12"/>
-        <v>257.7600569597721</v>
+        <v>256.26543209876547</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="1"/>
@@ -3548,15 +4478,15 @@
       </c>
       <c r="E25" s="6">
         <f t="shared" si="10"/>
-        <v>2.1132075471698113</v>
+        <v>2.0555555555555554</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="11"/>
-        <v>4.4656461374154501</v>
+        <v>4.2253086419753076</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="12"/>
-        <v>147.36632253470987</v>
+        <v>139.43518518518516</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="1"/>
@@ -3569,23 +4499,23 @@
       </c>
       <c r="C26" s="7">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="10"/>
-        <v>3.1132075471698113</v>
+        <v>3.0555555555555554</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="11"/>
-        <v>9.6920612317550727</v>
+        <v>9.3364197530864192</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="12"/>
-        <v>29.076183695265218</v>
+        <v>0</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
@@ -3606,11 +4536,11 @@
       </c>
       <c r="E27" s="6">
         <f t="shared" si="10"/>
-        <v>4.1132075471698117</v>
+        <v>4.0555555555555554</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="11"/>
-        <v>16.918476326094698</v>
+        <v>16.447530864197528</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="12"/>
@@ -3635,11 +4565,11 @@
       </c>
       <c r="E28" s="6">
         <f t="shared" si="10"/>
-        <v>5.1132075471698117</v>
+        <v>5.0555555555555554</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="11"/>
-        <v>26.144891420434323</v>
+        <v>25.558641975308639</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="12"/>
@@ -3653,17 +4583,17 @@
       <c r="B29" s="12"/>
       <c r="C29" s="5">
         <f>SUM(C18:C28)</f>
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D29" s="5">
         <f>SUM(D18:D28)</f>
-        <v>-114</v>
+        <v>-56</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5">
         <f>SUM(G18:G28)</f>
-        <v>901.09433962264143</v>
+        <v>814.88888888888891</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="1"/>
@@ -3709,7 +4639,7 @@
       </c>
       <c r="D33" s="6">
         <f>D29/C29</f>
-        <v>-0.11320754716981132</v>
+        <v>-5.5555555555555552E-2</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="1"/>
@@ -3725,7 +4655,7 @@
       </c>
       <c r="D34" s="6">
         <f>G29/C29</f>
-        <v>0.89483052594105406</v>
+        <v>0.80842151675485008</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="1"/>
@@ -3741,7 +4671,7 @@
       </c>
       <c r="D35" s="6">
         <f>SQRT(D34)</f>
-        <v>0.94595482235731221</v>
+        <v>0.89912263721633101</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="1"/>
@@ -3752,5 +4682,1559 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CD015E-35D1-4646-BA16-39A53C5518A6}">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6">
+        <v>-4.5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <f>(B2-$D$33)/$D$35</f>
+        <v>-4.0949574552659405</v>
+      </c>
+      <c r="E2" s="6">
+        <f>_xlfn.NORM.DIST(D2,0,1,1)</f>
+        <v>2.1112295948189255E-5</v>
+      </c>
+      <c r="F2" s="6">
+        <f>E2</f>
+        <v>2.1112295948189255E-5</v>
+      </c>
+      <c r="G2" s="6">
+        <f>F2*$C$13</f>
+        <v>2.1281194315774767E-2</v>
+      </c>
+      <c r="H2" s="6">
+        <f>C2-G2</f>
+        <v>-2.1281194315774767E-2</v>
+      </c>
+      <c r="I2" s="6">
+        <f>H2^2</f>
+        <v>4.5288923150576426E-4</v>
+      </c>
+      <c r="J2" s="6">
+        <f>I2/G2</f>
+        <v>2.1281194315774767E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-3.5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D12" si="0">(B3-$D$33)/$D$35</f>
+        <v>-3.1579047617567308</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E12" si="1">_xlfn.NORM.DIST(D3,0,1,1)</f>
+        <v>7.9453731816092447E-4</v>
+      </c>
+      <c r="F3" s="6">
+        <f>E3-E2</f>
+        <v>7.7342502221273523E-4</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G12" si="2">F3*$C$13</f>
+        <v>0.77961242239043715</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H12" si="3">C3-G3</f>
+        <v>2.220387577609563</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I12" si="4">H3^2</f>
+        <v>4.9301209948028628</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J12" si="5">I3/G3</f>
+        <v>6.3238102077519391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-2.5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.2208520682475212</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3180491299176171E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F12" si="6">E4-E3</f>
+        <v>1.2385953981015246E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="2"/>
+        <v>12.485041612863368</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="3"/>
+        <v>5.5149583871366321</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="4"/>
+        <v>30.414766011848684</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="5"/>
+        <v>2.4360964868961492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>-1.5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>53</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.2837993747383118</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9606081218014231E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="6"/>
+        <v>8.6425589918838058E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="2"/>
+        <v>87.116994638188757</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="3"/>
+        <v>-34.116994638188757</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="4"/>
+        <v>1163.9693231422004</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="5"/>
+        <v>13.36099033232674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>284</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.34674668122910235</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.36439081842279819</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="6"/>
+        <v>0.26478473720478396</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="2"/>
+        <v>266.90301510242222</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="3"/>
+        <v>17.096984897577784</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="4"/>
+        <v>292.30689258800282</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="5"/>
+        <v>1.095180181744414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>383</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.59030601228010715</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.7225072453407787</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.35811642691798051</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
+        <v>360.98135833332435</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="3"/>
+        <v>22.018641666675649</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="4"/>
+        <v>484.82058084546497</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3430626531073926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>218</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5273587057893168</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.93666408056849992</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="6"/>
+        <v>0.21415683522772122</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
+        <v>215.870089909543</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="3"/>
+        <v>2.1299100904570025</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="4"/>
+        <v>4.5365169934305563</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="5"/>
+        <v>2.1015032676974903E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4644113992985264</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.99313807555518141</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="6"/>
+        <v>5.6473994986681486E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>56.925786946574938</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="3"/>
+        <v>-16.925786946574938</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="4"/>
+        <v>286.48226376084654</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="5"/>
+        <v>5.0325569329364068</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>3.401464092807736</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.9996648703340576</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="6"/>
+        <v>6.5267947788761882E-3</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>6.5790091371071977</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4209908628928023</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="4"/>
+        <v>5.8611967582104354</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="5"/>
+        <v>0.89089354279079391</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>4.3385167863169452</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.99999282762349673</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="6"/>
+        <v>3.2795728943912916E-4</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.3305809477546422</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.3305809477546422</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="4"/>
+        <v>0.10928376301835747</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="5"/>
+        <v>0.3305809477546422</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="4">
+        <f>M10-M9-1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>5.2755694798261548</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.99999993382777186</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="6"/>
+        <v>7.1062042751313115E-6</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>7.163053909332362E-3</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="3"/>
+        <v>-7.163053909332362E-3</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="4"/>
+        <v>5.1309341308001636E-5</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="5"/>
+        <v>7.163053909332362E-3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="15">
+        <f>SUM(C2:C12)</f>
+        <v>1008</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="16">
+        <f>SUM(F2:F12)</f>
+        <v>0.99999993382777186</v>
+      </c>
+      <c r="G13" s="16">
+        <f>SUM(G2:G12)</f>
+        <v>1007.9999332983941</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="17">
+        <f>SUM(J2:J12)</f>
+        <v>30.862630566210562</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="4">
+        <f>CHIINV(M12,M11)</f>
+        <v>15.507313055865453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
+        <f>B2-0.5</f>
+        <v>-5</v>
+      </c>
+      <c r="C18" s="7">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <f>C18*B18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <f>B18-$D$33</f>
+        <v>-4.8700396825396828</v>
+      </c>
+      <c r="F18" s="6">
+        <f>E18^2</f>
+        <v>23.717286509511215</v>
+      </c>
+      <c r="G18" s="6">
+        <f>F18*C18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
+        <f t="shared" ref="B19:B28" si="7">B3-0.5</f>
+        <v>-4</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19:C28" si="8">C3</f>
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:D28" si="9">C19*B19</f>
+        <v>-12</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" ref="E19:E28" si="10">B19-$D$33</f>
+        <v>-3.8700396825396823</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19:F28" si="11">E19^2</f>
+        <v>14.977207144431846</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" ref="G19:G28" si="12">F19*C19</f>
+        <v>44.93162143329554</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="9"/>
+        <v>-54</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="10"/>
+        <v>-2.8700396825396823</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="11"/>
+        <v>8.2371277793524804</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="12"/>
+        <v>148.26830002834464</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="9"/>
+        <v>-106</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="10"/>
+        <v>-1.8700396825396826</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="11"/>
+        <v>3.4970484142731166</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="12"/>
+        <v>185.34356595647517</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="8"/>
+        <v>284</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="9"/>
+        <v>-284</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="10"/>
+        <v>-0.87003968253968256</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="11"/>
+        <v>0.75696904919375163</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="12"/>
+        <v>214.97920997102545</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="8"/>
+        <v>383</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="10"/>
+        <v>0.12996031746031747</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="11"/>
+        <v>1.6889684114386499E-2</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="12"/>
+        <v>6.4687490158100287</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="8"/>
+        <v>218</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="9"/>
+        <v>218</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="10"/>
+        <v>1.1299603174603174</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="11"/>
+        <v>1.2768103190350213</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="12"/>
+        <v>278.34464954963465</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="10"/>
+        <v>2.1299603174603177</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="11"/>
+        <v>4.5367309539556571</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="12"/>
+        <v>181.46923815822629</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="10"/>
+        <v>3.1299603174603177</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="11"/>
+        <v>9.7966515888762924</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="12"/>
+        <v>88.169864299886626</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="10"/>
+        <v>4.1299603174603172</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="11"/>
+        <v>17.056572223796923</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="10"/>
+        <v>5.1299603174603172</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="11"/>
+        <v>26.316492858717559</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="5">
+        <f>SUM(C18:C28)</f>
+        <v>1008</v>
+      </c>
+      <c r="D29" s="5">
+        <f>SUM(D18:D28)</f>
+        <v>-131</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="5">
+        <f>SUM(G18:G28)</f>
+        <v>1147.9751984126983</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="6">
+        <f>D29/C29</f>
+        <v>-0.12996031746031747</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+      <c r="C34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6">
+        <f>G29/C29</f>
+        <v>1.1388642841395817</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="6">
+        <f>SQRT(D34)</f>
+        <v>1.0671758449944329</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7715FD9-5841-4E19-B6A0-B41F9F86D12D}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19">
+        <v>12.37</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1008</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
+        <v>455.85</v>
+      </c>
+      <c r="F3" s="23">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19">
+        <v>15.48</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1008</v>
+      </c>
+      <c r="D4" s="27">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>454.19</v>
+      </c>
+      <c r="F4" s="23">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1008</v>
+      </c>
+      <c r="D5" s="27">
+        <v>3</v>
+      </c>
+      <c r="E5" s="19">
+        <v>293.01</v>
+      </c>
+      <c r="F5" s="23">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19">
+        <v>14.28</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1007</v>
+      </c>
+      <c r="D6" s="27">
+        <v>4</v>
+      </c>
+      <c r="E6" s="19">
+        <v>584.19000000000005</v>
+      </c>
+      <c r="F6" s="23">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19">
+        <v>15.85</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1008</v>
+      </c>
+      <c r="D7" s="27">
+        <v>5</v>
+      </c>
+      <c r="E7" s="19">
+        <v>360.29</v>
+      </c>
+      <c r="F7" s="23">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19">
+        <v>8.35</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1008</v>
+      </c>
+      <c r="D8" s="27">
+        <v>6</v>
+      </c>
+      <c r="E8" s="19">
+        <v>362.99</v>
+      </c>
+      <c r="F8" s="23">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19">
+        <v>16.68</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1008</v>
+      </c>
+      <c r="D9" s="27">
+        <v>7</v>
+      </c>
+      <c r="E9" s="19">
+        <v>538.12</v>
+      </c>
+      <c r="F9" s="23">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19">
+        <v>17.89</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1008</v>
+      </c>
+      <c r="D10" s="27">
+        <v>8</v>
+      </c>
+      <c r="E10" s="19">
+        <v>538.5</v>
+      </c>
+      <c r="F10" s="23">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19">
+        <v>9.56</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1008</v>
+      </c>
+      <c r="D11" s="27">
+        <v>9</v>
+      </c>
+      <c r="E11" s="19">
+        <v>329.32</v>
+      </c>
+      <c r="F11" s="23">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19">
+        <v>11.07</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1008</v>
+      </c>
+      <c r="D12" s="27">
+        <v>10</v>
+      </c>
+      <c r="E12" s="19">
+        <v>495.02</v>
+      </c>
+      <c r="F12" s="23">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="25">
+        <f>AVERAGE(B3:B12)</f>
+        <v>13.131</v>
+      </c>
+      <c r="C13" s="26">
+        <f>AVERAGE(C3:C12)</f>
+        <v>1007.9</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="25">
+        <f ca="1">AVERAGE(E4:E13)</f>
+        <v>441.14800000000002</v>
+      </c>
+      <c r="F13" s="26">
+        <f ca="1">AVERAGE(F4:F13)</f>
+        <v>364.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>1</v>
+      </c>
+      <c r="B16" s="19">
+        <v>106.19</v>
+      </c>
+      <c r="C16" s="23">
+        <v>792</v>
+      </c>
+      <c r="D16" s="27">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20">
+        <v>15.05</v>
+      </c>
+      <c r="F16" s="28">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19">
+        <v>92.02</v>
+      </c>
+      <c r="C17" s="23">
+        <v>798</v>
+      </c>
+      <c r="D17" s="27">
+        <v>2</v>
+      </c>
+      <c r="E17" s="21">
+        <v>11.23</v>
+      </c>
+      <c r="F17" s="28">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>3</v>
+      </c>
+      <c r="B18" s="19">
+        <v>103.04</v>
+      </c>
+      <c r="C18" s="23">
+        <v>796</v>
+      </c>
+      <c r="D18" s="27">
+        <v>3</v>
+      </c>
+      <c r="E18" s="21">
+        <v>28.09</v>
+      </c>
+      <c r="F18" s="28">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>4</v>
+      </c>
+      <c r="B19" s="19">
+        <v>110.32</v>
+      </c>
+      <c r="C19" s="23">
+        <v>789</v>
+      </c>
+      <c r="D19" s="27">
+        <v>4</v>
+      </c>
+      <c r="E19" s="21">
+        <v>41.7</v>
+      </c>
+      <c r="F19" s="28">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>5</v>
+      </c>
+      <c r="B20" s="19">
+        <v>127.86</v>
+      </c>
+      <c r="C20" s="23">
+        <v>817</v>
+      </c>
+      <c r="D20" s="27">
+        <v>5</v>
+      </c>
+      <c r="E20" s="21">
+        <v>30.86</v>
+      </c>
+      <c r="F20" s="28">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>6</v>
+      </c>
+      <c r="B21" s="19">
+        <v>126.38</v>
+      </c>
+      <c r="C21" s="23">
+        <v>789</v>
+      </c>
+      <c r="D21" s="27">
+        <v>6</v>
+      </c>
+      <c r="E21" s="21">
+        <v>12.41</v>
+      </c>
+      <c r="F21" s="28">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>7</v>
+      </c>
+      <c r="B22" s="19">
+        <v>101.91</v>
+      </c>
+      <c r="C22" s="23">
+        <v>791</v>
+      </c>
+      <c r="D22" s="27">
+        <v>7</v>
+      </c>
+      <c r="E22" s="21">
+        <v>29.77</v>
+      </c>
+      <c r="F22" s="28">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>8</v>
+      </c>
+      <c r="B23" s="19">
+        <v>115.33</v>
+      </c>
+      <c r="C23" s="23">
+        <v>806</v>
+      </c>
+      <c r="D23" s="27">
+        <v>8</v>
+      </c>
+      <c r="E23" s="21">
+        <v>6.62</v>
+      </c>
+      <c r="F23" s="28">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>9</v>
+      </c>
+      <c r="B24" s="19">
+        <v>98.35</v>
+      </c>
+      <c r="C24" s="23">
+        <v>800</v>
+      </c>
+      <c r="D24" s="27">
+        <v>9</v>
+      </c>
+      <c r="E24" s="21">
+        <v>12.75</v>
+      </c>
+      <c r="F24" s="28">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>10</v>
+      </c>
+      <c r="B25" s="19">
+        <v>114.68</v>
+      </c>
+      <c r="C25" s="23">
+        <v>776</v>
+      </c>
+      <c r="D25" s="27">
+        <v>10</v>
+      </c>
+      <c r="E25" s="21">
+        <v>14.49</v>
+      </c>
+      <c r="F25" s="28">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="25">
+        <f>AVERAGE(B16:B25)</f>
+        <v>109.60799999999999</v>
+      </c>
+      <c r="C26" s="26">
+        <f>AVERAGE(C16:C25)</f>
+        <v>795.4</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="25">
+        <f>AVERAGE(E16:E25)</f>
+        <v>20.297000000000004</v>
+      </c>
+      <c r="F26" s="26">
+        <f>AVERAGE(F16:F25)</f>
+        <v>1007.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>